--- a/data/spring-cloud-shop/shop-platform-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-platform-api_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="431">
   <si>
     <t>Class Name</t>
   </si>
@@ -891,87 +891,87 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>fieldMapper</t>
+  </si>
+  <si>
     <t>fieldPropsMapper</t>
   </si>
   <si>
-    <t>fieldMapper</t>
+    <t>configType</t>
+  </si>
+  <si>
+    <t>configStatus</t>
+  </si>
+  <si>
+    <t>configName</t>
+  </si>
+  <si>
+    <t>configValue</t>
   </si>
   <si>
     <t>configKey</t>
   </si>
   <si>
-    <t>configType</t>
-  </si>
-  <si>
-    <t>configStatus</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>configName</t>
-  </si>
-  <si>
-    <t>configValue</t>
+    <t>step</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>prefixIcon</t>
   </si>
   <si>
     <t>rows</t>
   </si>
   <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>clearable</t>
+  </si>
+  <si>
+    <t>suffixIcon</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>fieldId</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>maxLength</t>
   </si>
   <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>minLength</t>
   </si>
   <si>
     <t>datasource</t>
   </si>
   <si>
-    <t>fieldId</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>autosize</t>
   </si>
   <si>
-    <t>suffixIcon</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>placeholder</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>prefixIcon</t>
-  </si>
-  <si>
-    <t>clearable</t>
-  </si>
-  <si>
     <t>systemConfigDetailService</t>
   </si>
   <si>
     <t>cityName</t>
   </si>
   <si>
+    <t>cityCode</t>
+  </si>
+  <si>
     <t>parentCityCode</t>
   </si>
   <si>
-    <t>cityCode</t>
-  </si>
-  <si>
     <t>formId</t>
   </si>
   <si>
@@ -996,124 +996,124 @@
     <t>platformMQ</t>
   </si>
   <si>
+    <t>templateCode</t>
+  </si>
+  <si>
     <t>templateContent</t>
   </si>
   <si>
-    <t>templateCode</t>
+    <t>PLATFORM_SEND_SMS_INPUT</t>
   </si>
   <si>
     <t>PLATFORM_SEND_SMS_OUTPUT</t>
   </si>
   <si>
-    <t>PLATFORM_SEND_SMS_INPUT</t>
-  </si>
-  <si>
     <t>smsTemplateService</t>
   </si>
   <si>
+    <t>showAlpha</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>allowHalf</t>
+  </si>
+  <si>
+    <t>endPlaceholder</t>
+  </si>
+  <si>
+    <t>startPlaceholder</t>
+  </si>
+  <si>
+    <t>customClass</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>bizType</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>editable</t>
+  </si>
+  <si>
+    <t>beRange</t>
+  </si>
+  <si>
+    <t>arrowControl</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>showInput</t>
+  </si>
+  <si>
+    <t>showLabel</t>
+  </si>
+  <si>
+    <t>filterable</t>
+  </si>
+  <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
+  </si>
+  <si>
     <t>readonly</t>
   </si>
   <si>
-    <t>filterable</t>
-  </si>
-  <si>
-    <t>showAlpha</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>inline</t>
-  </si>
-  <si>
-    <t>arrowControl</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>endPlaceholder</t>
-  </si>
-  <si>
-    <t>bizType</t>
-  </si>
-  <si>
     <t>remoteUrl</t>
   </si>
   <si>
-    <t>beRange</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>showLabel</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>dataType</t>
-  </si>
-  <si>
-    <t>rules</t>
-  </si>
-  <si>
-    <t>allowHalf</t>
-  </si>
-  <si>
-    <t>customClass</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
-    <t>startPlaceholder</t>
-  </si>
-  <si>
-    <t>defaultValue</t>
-  </si>
-  <si>
-    <t>editable</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>showInput</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
+    <t>fieldService</t>
+  </si>
+  <si>
     <t>formService</t>
   </si>
   <si>
-    <t>fieldService</t>
-  </si>
-  <si>
     <t>areaName</t>
   </si>
   <si>
+    <t>areaCode</t>
+  </si>
+  <si>
     <t>parentAreaCode</t>
-  </si>
-  <si>
-    <t>areaCode</t>
   </si>
   <si>
     <t>provinceCode</t>
@@ -10729,7 +10729,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11906,21 +11906,21 @@
         <v>113</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109">
@@ -11928,10 +11928,10 @@
         <v>117</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110">
@@ -11939,7 +11939,7 @@
         <v>117</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>395</v>
@@ -11950,10 +11950,10 @@
         <v>117</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112">
@@ -11961,10 +11961,10 @@
         <v>117</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>395</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113">
@@ -11972,10 +11972,10 @@
         <v>117</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>417</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114">
@@ -11983,10 +11983,10 @@
         <v>117</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115">
@@ -11994,10 +11994,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116">
@@ -12005,10 +12005,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117">
@@ -12016,7 +12016,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>402</v>
@@ -12024,10 +12024,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>402</v>
@@ -12038,21 +12038,21 @@
         <v>128</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>426</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121">
@@ -12060,10 +12060,10 @@
         <v>131</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>400</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122">
@@ -12071,10 +12071,10 @@
         <v>131</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123">
@@ -12082,10 +12082,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>402</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124">
@@ -12093,10 +12093,10 @@
         <v>131</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125">
@@ -12104,7 +12104,7 @@
         <v>131</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>400</v>
@@ -12115,7 +12115,7 @@
         <v>131</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>400</v>
@@ -12126,7 +12126,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>400</v>
@@ -12137,7 +12137,7 @@
         <v>131</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>400</v>
@@ -12145,13 +12145,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130">
@@ -12159,7 +12159,7 @@
         <v>137</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>378</v>
@@ -12170,7 +12170,7 @@
         <v>137</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>378</v>
@@ -12181,7 +12181,7 @@
         <v>137</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>378</v>
@@ -12189,10 +12189,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>378</v>
@@ -12203,7 +12203,7 @@
         <v>144</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>378</v>
@@ -12211,13 +12211,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>275</v>
+        <v>144</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136">
@@ -12225,10 +12225,10 @@
         <v>275</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137">
@@ -12236,10 +12236,10 @@
         <v>275</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138">
@@ -12247,10 +12247,10 @@
         <v>275</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139">
@@ -12258,7 +12258,7 @@
         <v>275</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>404</v>
@@ -12269,7 +12269,7 @@
         <v>275</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>404</v>
@@ -12280,21 +12280,21 @@
         <v>275</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>427</v>
+        <v>276</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>26</v>
+        <v>427</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143">
@@ -12302,7 +12302,7 @@
         <v>149</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>378</v>
@@ -12313,7 +12313,7 @@
         <v>149</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>378</v>
@@ -12321,13 +12321,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>278</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146">
@@ -12335,10 +12335,10 @@
         <v>278</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147">
@@ -12346,10 +12346,10 @@
         <v>278</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148">
@@ -12357,10 +12357,10 @@
         <v>278</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149">
@@ -12368,7 +12368,7 @@
         <v>278</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>400</v>
@@ -12376,13 +12376,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151">
@@ -12390,21 +12390,21 @@
         <v>152</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153">
@@ -12412,10 +12412,10 @@
         <v>155</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154">
@@ -12423,7 +12423,7 @@
         <v>155</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>400</v>
@@ -12434,7 +12434,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>400</v>
@@ -12445,7 +12445,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>400</v>
@@ -12456,7 +12456,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>197</v>
+        <v>67</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>400</v>
@@ -12467,7 +12467,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>400</v>
@@ -12478,7 +12478,7 @@
         <v>155</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>400</v>
@@ -12489,7 +12489,7 @@
         <v>155</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>400</v>
@@ -12500,7 +12500,7 @@
         <v>155</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>400</v>
@@ -12511,7 +12511,7 @@
         <v>155</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>400</v>
@@ -12522,7 +12522,7 @@
         <v>155</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>400</v>
@@ -12533,7 +12533,7 @@
         <v>155</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>400</v>
@@ -12544,7 +12544,7 @@
         <v>155</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>400</v>
@@ -12555,7 +12555,7 @@
         <v>155</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>400</v>
@@ -12566,7 +12566,7 @@
         <v>155</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>400</v>
@@ -12577,7 +12577,7 @@
         <v>155</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>400</v>
@@ -12588,7 +12588,7 @@
         <v>155</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>400</v>
@@ -12599,7 +12599,7 @@
         <v>155</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>400</v>
@@ -12610,7 +12610,7 @@
         <v>155</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>400</v>
@@ -12621,7 +12621,7 @@
         <v>155</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>400</v>
@@ -12632,7 +12632,7 @@
         <v>155</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>400</v>
@@ -12643,7 +12643,7 @@
         <v>155</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>400</v>
@@ -12654,7 +12654,7 @@
         <v>155</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>400</v>
@@ -12665,7 +12665,7 @@
         <v>155</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>400</v>
@@ -12676,7 +12676,7 @@
         <v>155</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>400</v>
@@ -12687,7 +12687,7 @@
         <v>155</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>400</v>
@@ -12698,7 +12698,7 @@
         <v>155</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>400</v>
@@ -12709,7 +12709,7 @@
         <v>155</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>400</v>
@@ -12720,7 +12720,7 @@
         <v>155</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>400</v>
@@ -12731,7 +12731,7 @@
         <v>155</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>400</v>
@@ -12742,7 +12742,7 @@
         <v>155</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>400</v>
@@ -12753,7 +12753,7 @@
         <v>155</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>400</v>
@@ -12764,7 +12764,7 @@
         <v>155</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>400</v>
@@ -12775,7 +12775,7 @@
         <v>155</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>400</v>
@@ -12786,10 +12786,10 @@
         <v>155</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="188">
@@ -12797,7 +12797,7 @@
         <v>155</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>404</v>
@@ -12808,7 +12808,7 @@
         <v>155</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>404</v>
@@ -12819,7 +12819,7 @@
         <v>155</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>404</v>
@@ -12830,7 +12830,7 @@
         <v>155</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>404</v>
@@ -12841,7 +12841,7 @@
         <v>155</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>404</v>
@@ -12852,7 +12852,7 @@
         <v>155</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>404</v>
@@ -12863,7 +12863,7 @@
         <v>155</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>404</v>
@@ -12874,7 +12874,7 @@
         <v>155</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>404</v>
@@ -12885,7 +12885,7 @@
         <v>155</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>404</v>
@@ -12896,7 +12896,7 @@
         <v>155</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>404</v>
@@ -12907,7 +12907,7 @@
         <v>155</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>404</v>
@@ -12918,7 +12918,7 @@
         <v>155</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>404</v>
@@ -12929,7 +12929,7 @@
         <v>155</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>404</v>
@@ -12940,7 +12940,7 @@
         <v>155</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>404</v>
@@ -12951,7 +12951,7 @@
         <v>155</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>404</v>
@@ -12962,7 +12962,7 @@
         <v>155</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>404</v>
@@ -12973,7 +12973,7 @@
         <v>155</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>404</v>
@@ -12984,7 +12984,7 @@
         <v>155</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>404</v>
@@ -12995,7 +12995,7 @@
         <v>155</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>404</v>
@@ -13006,7 +13006,7 @@
         <v>155</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>404</v>
@@ -13017,7 +13017,7 @@
         <v>155</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>404</v>
@@ -13028,7 +13028,7 @@
         <v>155</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>404</v>
@@ -13039,7 +13039,7 @@
         <v>155</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>404</v>
@@ -13050,7 +13050,7 @@
         <v>155</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>404</v>
@@ -13061,7 +13061,7 @@
         <v>155</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>404</v>
@@ -13072,7 +13072,7 @@
         <v>155</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>404</v>
@@ -13083,7 +13083,7 @@
         <v>155</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>404</v>
@@ -13094,7 +13094,7 @@
         <v>155</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>404</v>
@@ -13105,7 +13105,7 @@
         <v>155</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>404</v>
@@ -13116,7 +13116,7 @@
         <v>155</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>404</v>
@@ -13127,7 +13127,7 @@
         <v>155</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>404</v>
@@ -13138,7 +13138,7 @@
         <v>155</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>404</v>
@@ -13149,7 +13149,7 @@
         <v>155</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>404</v>
@@ -13160,10 +13160,10 @@
         <v>155</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="222">
@@ -13171,10 +13171,10 @@
         <v>155</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>400</v>
+        <v>428</v>
       </c>
     </row>
     <row r="223">
@@ -13182,10 +13182,10 @@
         <v>155</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="224">
@@ -13193,21 +13193,21 @@
         <v>155</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226">
@@ -13215,10 +13215,10 @@
         <v>37</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="227">
@@ -13226,10 +13226,10 @@
         <v>37</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="228">
@@ -13237,10 +13237,10 @@
         <v>37</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="229">
@@ -13248,10 +13248,10 @@
         <v>37</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="230">
@@ -13259,7 +13259,7 @@
         <v>37</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>400</v>
@@ -13270,7 +13270,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>400</v>
@@ -13281,7 +13281,7 @@
         <v>37</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>400</v>
@@ -13292,7 +13292,7 @@
         <v>37</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>400</v>
@@ -13303,7 +13303,7 @@
         <v>37</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>400</v>
@@ -13314,7 +13314,7 @@
         <v>37</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>400</v>
@@ -13322,13 +13322,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="237">
@@ -13336,7 +13336,7 @@
         <v>218</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>378</v>
@@ -13347,7 +13347,7 @@
         <v>218</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>378</v>
@@ -13355,13 +13355,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="240">
@@ -13369,10 +13369,10 @@
         <v>281</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241">
@@ -13380,10 +13380,10 @@
         <v>281</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="242">
@@ -13391,10 +13391,10 @@
         <v>281</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="243">
@@ -13402,7 +13402,7 @@
         <v>281</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>400</v>
@@ -13413,10 +13413,10 @@
         <v>281</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>391</v>
+        <v>26</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="245">
@@ -13424,10 +13424,10 @@
         <v>281</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="246">
@@ -13435,7 +13435,7 @@
         <v>281</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>402</v>
@@ -13443,10 +13443,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>223</v>
+        <v>430</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>402</v>
@@ -13457,10 +13457,10 @@
         <v>222</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="249">
@@ -13468,21 +13468,21 @@
         <v>222</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="251">
@@ -13490,10 +13490,10 @@
         <v>226</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="252">
@@ -13501,10 +13501,10 @@
         <v>226</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="253">
@@ -13512,10 +13512,10 @@
         <v>226</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="254">
@@ -13523,10 +13523,10 @@
         <v>226</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="255">
@@ -13534,10 +13534,10 @@
         <v>226</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="256">
@@ -13545,7 +13545,7 @@
         <v>226</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>400</v>
@@ -13553,13 +13553,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="258">
@@ -13567,7 +13567,7 @@
         <v>235</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>378</v>
@@ -13578,7 +13578,7 @@
         <v>235</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>378</v>
@@ -13589,7 +13589,7 @@
         <v>235</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>378</v>
@@ -13597,10 +13597,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>378</v>
@@ -13611,7 +13611,7 @@
         <v>236</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>378</v>
@@ -13622,7 +13622,7 @@
         <v>236</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>378</v>
@@ -13633,7 +13633,7 @@
         <v>236</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>378</v>
@@ -13644,7 +13644,7 @@
         <v>236</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>378</v>
@@ -13652,13 +13652,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>422</v>
+        <v>378</v>
       </c>
     </row>
     <row r="267">
@@ -13666,10 +13666,10 @@
         <v>237</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="268">
@@ -13677,10 +13677,10 @@
         <v>237</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="269">
@@ -13688,10 +13688,10 @@
         <v>237</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="270">
@@ -13699,10 +13699,10 @@
         <v>237</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="271">
@@ -13710,7 +13710,7 @@
         <v>237</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>400</v>
@@ -13721,7 +13721,7 @@
         <v>237</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>400</v>
@@ -13732,7 +13732,7 @@
         <v>237</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>400</v>
@@ -13743,7 +13743,7 @@
         <v>237</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>400</v>
@@ -13754,7 +13754,7 @@
         <v>237</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>400</v>
@@ -13765,7 +13765,7 @@
         <v>237</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>400</v>
@@ -13773,13 +13773,13 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="278">
@@ -13787,10 +13787,10 @@
         <v>245</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="279">
@@ -13798,10 +13798,10 @@
         <v>245</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="280">
@@ -13809,7 +13809,7 @@
         <v>245</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>416</v>
@@ -13817,13 +13817,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="282">
@@ -13831,10 +13831,10 @@
         <v>247</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>400</v>
+        <v>426</v>
       </c>
     </row>
     <row r="283">
@@ -13842,10 +13842,10 @@
         <v>247</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="284">
@@ -13853,10 +13853,10 @@
         <v>247</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>402</v>
+        <v>425</v>
       </c>
     </row>
     <row r="285">
@@ -13864,10 +13864,10 @@
         <v>247</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="286">
@@ -13875,7 +13875,7 @@
         <v>247</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>400</v>
@@ -13886,7 +13886,7 @@
         <v>247</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>400</v>
@@ -13897,7 +13897,7 @@
         <v>247</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>400</v>
@@ -13908,7 +13908,7 @@
         <v>247</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>400</v>
@@ -13916,13 +13916,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="291">
@@ -13930,7 +13930,7 @@
         <v>253</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>378</v>
@@ -13941,7 +13941,7 @@
         <v>253</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>378</v>
@@ -13952,7 +13952,7 @@
         <v>253</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>378</v>
@@ -13960,13 +13960,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="295">
@@ -13974,29 +13974,29 @@
         <v>256</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>402</v>
@@ -14007,21 +14007,21 @@
         <v>284</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="300">
@@ -14029,10 +14029,10 @@
         <v>263</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="301">
@@ -14040,10 +14040,10 @@
         <v>263</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302">
@@ -14051,10 +14051,10 @@
         <v>263</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>395</v>
+        <v>415</v>
       </c>
     </row>
     <row r="303">
@@ -14062,10 +14062,10 @@
         <v>263</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="304">
@@ -14073,7 +14073,7 @@
         <v>263</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>400</v>
@@ -14084,9 +14084,20 @@
         <v>263</v>
       </c>
       <c r="B305" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B306" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C305" t="s" s="0">
+      <c r="C306" t="s" s="0">
         <v>402</v>
       </c>
     </row>
@@ -15093,7 +15104,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
@@ -15107,7 +15118,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
@@ -15135,7 +15146,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -15149,7 +15160,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -15163,7 +15174,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -15171,7 +15182,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>33</v>
@@ -15185,13 +15196,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10">
@@ -15213,13 +15224,13 @@
         <v>55</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>66</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12">
@@ -15227,13 +15238,13 @@
         <v>55</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>295</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -15247,7 +15258,7 @@
         <v>33</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -15261,7 +15272,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -15289,7 +15300,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -15331,7 +15342,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -15345,7 +15356,7 @@
         <v>33</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -15359,7 +15370,7 @@
         <v>33</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -15401,7 +15412,7 @@
         <v>33</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -15437,13 +15448,13 @@
         <v>92</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28">
@@ -15451,13 +15462,13 @@
         <v>92</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -15479,13 +15490,13 @@
         <v>100</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -15493,13 +15504,13 @@
         <v>100</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>63</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
@@ -15521,13 +15532,13 @@
         <v>100</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -15541,7 +15552,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -15549,13 +15560,13 @@
         <v>108</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
@@ -15563,13 +15574,13 @@
         <v>108</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
@@ -15577,13 +15588,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -15591,7 +15602,7 @@
         <v>108</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>33</v>
@@ -15661,13 +15672,13 @@
         <v>131</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -15675,13 +15686,13 @@
         <v>131</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45">
@@ -15787,13 +15798,13 @@
         <v>155</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>295</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -15801,13 +15812,13 @@
         <v>155</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
@@ -15815,13 +15826,13 @@
         <v>155</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55">
@@ -15829,7 +15840,7 @@
         <v>155</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>33</v>
@@ -15843,7 +15854,7 @@
         <v>155</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>33</v>
@@ -15857,13 +15868,13 @@
         <v>155</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -15871,13 +15882,13 @@
         <v>155</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -15885,13 +15896,13 @@
         <v>155</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -15899,7 +15910,7 @@
         <v>155</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>33</v>
@@ -15913,7 +15924,7 @@
         <v>155</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>33</v>
@@ -15927,7 +15938,7 @@
         <v>155</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>33</v>
@@ -15941,7 +15952,7 @@
         <v>155</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>33</v>
@@ -15955,7 +15966,7 @@
         <v>155</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>33</v>
@@ -15969,13 +15980,13 @@
         <v>155</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66">
@@ -15983,7 +15994,7 @@
         <v>155</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>33</v>
@@ -15997,13 +16008,13 @@
         <v>155</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
@@ -16011,7 +16022,7 @@
         <v>155</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>33</v>
@@ -16025,7 +16036,7 @@
         <v>155</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>33</v>
@@ -16039,13 +16050,13 @@
         <v>155</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -16053,13 +16064,13 @@
         <v>155</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
@@ -16067,13 +16078,13 @@
         <v>155</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73">
@@ -16081,7 +16092,7 @@
         <v>155</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>33</v>
@@ -16095,7 +16106,7 @@
         <v>155</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>33</v>
@@ -16109,13 +16120,13 @@
         <v>155</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -16129,7 +16140,7 @@
         <v>33</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
@@ -16137,13 +16148,13 @@
         <v>155</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>66</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78">
@@ -16151,13 +16162,13 @@
         <v>155</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79">
@@ -16165,13 +16176,13 @@
         <v>155</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80">
@@ -16179,13 +16190,13 @@
         <v>155</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -16221,7 +16232,7 @@
         <v>155</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>33</v>
@@ -16235,13 +16246,13 @@
         <v>155</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -16255,7 +16266,7 @@
         <v>33</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86">
@@ -16263,7 +16274,7 @@
         <v>37</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>33</v>
@@ -16277,7 +16288,7 @@
         <v>37</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>33</v>
@@ -16291,13 +16302,13 @@
         <v>37</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89">
@@ -16305,13 +16316,13 @@
         <v>37</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -16325,7 +16336,7 @@
         <v>33</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
@@ -16339,7 +16350,7 @@
         <v>33</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -16361,13 +16372,13 @@
         <v>222</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>144</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94">
@@ -16375,13 +16386,13 @@
         <v>222</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>322</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
@@ -16431,13 +16442,13 @@
         <v>237</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -16445,13 +16456,13 @@
         <v>237</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100">
@@ -16473,13 +16484,13 @@
         <v>247</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102">
@@ -16487,13 +16498,13 @@
         <v>247</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>33</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
